--- a/2, 4, 7, 15糖尿病患病概率.xlsx
+++ b/2, 4, 7, 15糖尿病患病概率.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwa\Documents\GitHub\statistical-probability-of-diabetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C2693C-38DC-47A7-B390-61B28AF7A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3699300B-033D-4637-9406-3A19A5ABA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pregnancies</t>
   </si>
@@ -62,12 +62,16 @@
     <t>BloodPressure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>專案代碼下載鏈接：https://github.com/WAIWAI07/statistical-probability-of-diabetes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +90,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,11 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -534,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J769"/>
+  <dimension ref="A1:L769"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL36" sqref="AL36"/>
+      <selection pane="bottomRight" activeCell="R179" sqref="R179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5662,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5726,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5758,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5790,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5822,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5854,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5886,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5918,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5950,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5982,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6014,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6046,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6078,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6110,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:12" ht="16.5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6172,6 +6184,9 @@
       </c>
       <c r="J176">
         <v>0</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:10">
